--- a/SC PowerSchool to Ed-Fi Mapping.xlsx
+++ b/SC PowerSchool to Ed-Fi Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbfrye\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F8D7BC-21ED-4CBA-9E46-0D8052B4F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BC43E-28BF-4111-AA89-C9EDCE6E0A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8708" uniqueCount="3204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8713" uniqueCount="3205">
   <si>
     <t>Modified Date</t>
   </si>
@@ -10417,6 +10417,9 @@
   </si>
   <si>
     <t>Substitute</t>
+  </si>
+  <si>
+    <t>*****TEST FOR GITHUB*******</t>
   </si>
 </sst>
 </file>
@@ -31037,8 +31040,8 @@
   <dimension ref="A1:E1054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1065" sqref="A1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -48952,8 +48955,21 @@
       </c>
     </row>
     <row r="1054" spans="1:5" ht="14.4">
-      <c r="A1054" s="2"/>
-      <c r="B1054" s="116"/>
+      <c r="A1054" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>3204</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1002">
@@ -48965,12 +48981,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49153,15 +49166,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5C07CF-8698-4515-B669-C213F916A13D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C14FFA4-EA8D-4092-816D-D2D3B0000978}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49186,10 +49203,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C14FFA4-EA8D-4092-816D-D2D3B0000978}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF5C07CF-8698-4515-B669-C213F916A13D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>